--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_first_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_first_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.005035606084834903</v>
+        <v>-0.02314597604078636</v>
       </c>
       <c r="C2">
-        <v>0.3637992092113151</v>
+        <v>0.3579920056255013</v>
       </c>
       <c r="D2">
-        <v>0.1855350424686766</v>
+        <v>0.1782699060034266</v>
       </c>
       <c r="E2">
-        <v>0.4307377885311162</v>
+        <v>0.4222202103209018</v>
       </c>
       <c r="F2">
-        <v>0.4469671810323859</v>
+        <v>0.4363822494547141</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01898260142621907</v>
+        <v>0.01177902937386835</v>
       </c>
       <c r="C3">
-        <v>0.3165744648040408</v>
+        <v>0.3233677337305382</v>
       </c>
       <c r="D3">
-        <v>0.1363888829158927</v>
+        <v>0.1387525778210147</v>
       </c>
       <c r="E3">
-        <v>0.3693086553492792</v>
+        <v>0.3724950708680783</v>
       </c>
       <c r="F3">
-        <v>0.383880522739695</v>
+        <v>0.3863630867095333</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.007800479998660094</v>
+        <v>-0.008234150994489252</v>
       </c>
       <c r="C4">
-        <v>0.3794338973509053</v>
+        <v>0.3656812685479343</v>
       </c>
       <c r="D4">
-        <v>0.1847962523535563</v>
+        <v>0.1736781030421116</v>
       </c>
       <c r="E4">
-        <v>0.4298793462746917</v>
+        <v>0.4167470492302394</v>
       </c>
       <c r="F4">
-        <v>0.448920407845732</v>
+        <v>0.4336794057244024</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.03532198506918926</v>
+        <v>0.04114622104959433</v>
       </c>
       <c r="C5">
-        <v>0.256484493957575</v>
+        <v>0.2438785208639479</v>
       </c>
       <c r="D5">
-        <v>0.1004638152664789</v>
+        <v>0.09301430872978532</v>
       </c>
       <c r="E5">
-        <v>0.3169602739563414</v>
+        <v>0.3049824728239072</v>
       </c>
       <c r="F5">
-        <v>0.3303600912655401</v>
+        <v>0.315631483433317</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.001999777322476287</v>
+        <v>-0.004251297071472607</v>
       </c>
       <c r="C6">
-        <v>0.3449450660921168</v>
+        <v>0.3196557001756482</v>
       </c>
       <c r="D6">
-        <v>0.1826299662783947</v>
+        <v>0.1664324393548997</v>
       </c>
       <c r="E6">
-        <v>0.4273522742169447</v>
+        <v>0.4079613209054257</v>
       </c>
       <c r="F6">
-        <v>0.4504639178657379</v>
+        <v>0.4278502102499434</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.05875831221604488</v>
+        <v>-0.03152289704198964</v>
       </c>
       <c r="C7">
-        <v>0.3248868756532285</v>
+        <v>0.3137577720403564</v>
       </c>
       <c r="D7">
-        <v>0.1283271409738131</v>
+        <v>0.1200567451426497</v>
       </c>
       <c r="E7">
-        <v>0.3582277780600119</v>
+        <v>0.3464920563918454</v>
       </c>
       <c r="F7">
-        <v>0.374811855381139</v>
+        <v>0.3637200573468097</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.02790017881347545</v>
+        <v>-0.05669611638992965</v>
       </c>
       <c r="C8">
-        <v>0.3120134224315453</v>
+        <v>0.309241221828214</v>
       </c>
       <c r="D8">
-        <v>0.1287773667272362</v>
+        <v>0.12362493933599</v>
       </c>
       <c r="E8">
-        <v>0.3588556349386703</v>
+        <v>0.3516033835673229</v>
       </c>
       <c r="F8">
-        <v>0.3824715813897249</v>
+        <v>0.3680513563860018</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03188591864397194</v>
+        <v>-0.04410238231315148</v>
       </c>
       <c r="C9">
-        <v>0.2657396178317125</v>
+        <v>0.2487243691024244</v>
       </c>
       <c r="D9">
-        <v>0.1191176734651738</v>
+        <v>0.1063280554679864</v>
       </c>
       <c r="E9">
-        <v>0.3451342832365018</v>
+        <v>0.3260798299005727</v>
       </c>
       <c r="F9">
-        <v>0.3711932855898273</v>
+        <v>0.3453909343541705</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08813746832406733</v>
+        <v>-0.07289500678705241</v>
       </c>
       <c r="C10">
-        <v>0.4006316655689795</v>
+        <v>0.3460499651212735</v>
       </c>
       <c r="D10">
-        <v>0.2481246465188764</v>
+        <v>0.2127274776992719</v>
       </c>
       <c r="E10">
-        <v>0.4981211163149745</v>
+        <v>0.4612238910759848</v>
       </c>
       <c r="F10">
-        <v>0.5370546711793507</v>
+        <v>0.4919174337551497</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.003999554644952552</v>
+        <v>-0.05253816173664939</v>
       </c>
       <c r="C11">
-        <v>0.1842291086000733</v>
+        <v>0.2093953811075043</v>
       </c>
       <c r="D11">
-        <v>0.04734790943737645</v>
+        <v>0.05818608614024737</v>
       </c>
       <c r="E11">
-        <v>0.2175957477465413</v>
+        <v>0.2412179225104291</v>
       </c>
       <c r="F11">
-        <v>0.2432383424750775</v>
+        <v>0.2578972532655152</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_first_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_first_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02314597604078636</v>
+        <v>0.01177902937386835</v>
       </c>
       <c r="C2">
-        <v>0.3579920056255013</v>
+        <v>0.3233677337305382</v>
       </c>
       <c r="D2">
-        <v>0.1782699060034266</v>
+        <v>0.1387525778210147</v>
       </c>
       <c r="E2">
-        <v>0.4222202103209018</v>
+        <v>0.3724950708680783</v>
       </c>
       <c r="F2">
-        <v>0.4363822494547141</v>
+        <v>0.3863630867095333</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01177902937386835</v>
+        <v>-0.008234150994489252</v>
       </c>
       <c r="C3">
-        <v>0.3233677337305382</v>
+        <v>0.3656812685479343</v>
       </c>
       <c r="D3">
-        <v>0.1387525778210147</v>
+        <v>0.1736781030421116</v>
       </c>
       <c r="E3">
-        <v>0.3724950708680783</v>
+        <v>0.4167470492302394</v>
       </c>
       <c r="F3">
-        <v>0.3863630867095333</v>
+        <v>0.4336794057244024</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.008234150994489252</v>
+        <v>0.04114622104959433</v>
       </c>
       <c r="C4">
-        <v>0.3656812685479343</v>
+        <v>0.2438785208639479</v>
       </c>
       <c r="D4">
-        <v>0.1736781030421116</v>
+        <v>0.09301430872978532</v>
       </c>
       <c r="E4">
-        <v>0.4167470492302394</v>
+        <v>0.3049824728239072</v>
       </c>
       <c r="F4">
-        <v>0.4336794057244024</v>
+        <v>0.315631483433317</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.04114622104959433</v>
+        <v>-0.004251297071472607</v>
       </c>
       <c r="C5">
-        <v>0.2438785208639479</v>
+        <v>0.3196557001756482</v>
       </c>
       <c r="D5">
-        <v>0.09301430872978532</v>
+        <v>0.1664324393548997</v>
       </c>
       <c r="E5">
-        <v>0.3049824728239072</v>
+        <v>0.4079613209054257</v>
       </c>
       <c r="F5">
-        <v>0.315631483433317</v>
+        <v>0.4278502102499434</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.004251297071472607</v>
+        <v>-0.03152289704198964</v>
       </c>
       <c r="C6">
-        <v>0.3196557001756482</v>
+        <v>0.3137577720403564</v>
       </c>
       <c r="D6">
-        <v>0.1664324393548997</v>
+        <v>0.1200567451426497</v>
       </c>
       <c r="E6">
-        <v>0.4079613209054257</v>
+        <v>0.3464920563918454</v>
       </c>
       <c r="F6">
-        <v>0.4278502102499434</v>
+        <v>0.3637200573468097</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.03152289704198964</v>
+        <v>-0.05669611638992965</v>
       </c>
       <c r="C7">
-        <v>0.3137577720403564</v>
+        <v>0.309241221828214</v>
       </c>
       <c r="D7">
-        <v>0.1200567451426497</v>
+        <v>0.12362493933599</v>
       </c>
       <c r="E7">
-        <v>0.3464920563918454</v>
+        <v>0.3516033835673229</v>
       </c>
       <c r="F7">
-        <v>0.3637200573468097</v>
+        <v>0.3680513563860018</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.05669611638992965</v>
+        <v>-0.04410238231315148</v>
       </c>
       <c r="C8">
-        <v>0.309241221828214</v>
+        <v>0.2487243691024244</v>
       </c>
       <c r="D8">
-        <v>0.12362493933599</v>
+        <v>0.1063280554679864</v>
       </c>
       <c r="E8">
-        <v>0.3516033835673229</v>
+        <v>0.3260798299005727</v>
       </c>
       <c r="F8">
-        <v>0.3680513563860018</v>
+        <v>0.3453909343541705</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.04410238231315148</v>
+        <v>-0.07289500678705241</v>
       </c>
       <c r="C9">
-        <v>0.2487243691024244</v>
+        <v>0.3460499651212735</v>
       </c>
       <c r="D9">
-        <v>0.1063280554679864</v>
+        <v>0.2127274776992719</v>
       </c>
       <c r="E9">
-        <v>0.3260798299005727</v>
+        <v>0.4612238910759848</v>
       </c>
       <c r="F9">
-        <v>0.3453909343541705</v>
+        <v>0.4919174337551497</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07289500678705241</v>
+        <v>-0.05253816173664939</v>
       </c>
       <c r="C10">
-        <v>0.3460499651212735</v>
+        <v>0.2093953811075043</v>
       </c>
       <c r="D10">
-        <v>0.2127274776992719</v>
+        <v>0.05818608614024737</v>
       </c>
       <c r="E10">
-        <v>0.4612238910759848</v>
+        <v>0.2412179225104291</v>
       </c>
       <c r="F10">
-        <v>0.4919174337551497</v>
+        <v>0.2578972532655152</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.05253816173664939</v>
+        <v>-0.009352853557239749</v>
       </c>
       <c r="C11">
-        <v>0.2093953811075043</v>
+        <v>0.4545107205050175</v>
       </c>
       <c r="D11">
-        <v>0.05818608614024737</v>
+        <v>0.223274494992554</v>
       </c>
       <c r="E11">
-        <v>0.2412179225104291</v>
+        <v>0.4725193064759936</v>
       </c>
       <c r="F11">
-        <v>0.2578972532655152</v>
+        <v>0.5281891459539978</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_first_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_first_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01177902937386835</v>
+        <v>-0.02314597604078636</v>
       </c>
       <c r="C2">
-        <v>0.3233677337305382</v>
+        <v>0.3579920056255013</v>
       </c>
       <c r="D2">
-        <v>0.1387525778210147</v>
+        <v>0.1782699060034266</v>
       </c>
       <c r="E2">
-        <v>0.3724950708680783</v>
+        <v>0.4222202103209018</v>
       </c>
       <c r="F2">
-        <v>0.3863630867095333</v>
+        <v>0.4363822494547141</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.008234150994489252</v>
+        <v>0.01177902937386835</v>
       </c>
       <c r="C3">
-        <v>0.3656812685479343</v>
+        <v>0.3233677337305382</v>
       </c>
       <c r="D3">
-        <v>0.1736781030421116</v>
+        <v>0.1387525778210147</v>
       </c>
       <c r="E3">
-        <v>0.4167470492302394</v>
+        <v>0.3724950708680783</v>
       </c>
       <c r="F3">
-        <v>0.4336794057244024</v>
+        <v>0.3863630867095333</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.04114622104959433</v>
+        <v>-0.008234150994489252</v>
       </c>
       <c r="C4">
-        <v>0.2438785208639479</v>
+        <v>0.3656812685479343</v>
       </c>
       <c r="D4">
-        <v>0.09301430872978532</v>
+        <v>0.1736781030421116</v>
       </c>
       <c r="E4">
-        <v>0.3049824728239072</v>
+        <v>0.4167470492302394</v>
       </c>
       <c r="F4">
-        <v>0.315631483433317</v>
+        <v>0.4336794057244024</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.004251297071472607</v>
+        <v>0.04114622104959433</v>
       </c>
       <c r="C5">
-        <v>0.3196557001756482</v>
+        <v>0.2438785208639479</v>
       </c>
       <c r="D5">
-        <v>0.1664324393548997</v>
+        <v>0.09301430872978532</v>
       </c>
       <c r="E5">
-        <v>0.4079613209054257</v>
+        <v>0.3049824728239072</v>
       </c>
       <c r="F5">
-        <v>0.4278502102499434</v>
+        <v>0.315631483433317</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03152289704198964</v>
+        <v>-0.004251297071472607</v>
       </c>
       <c r="C6">
-        <v>0.3137577720403564</v>
+        <v>0.3196557001756482</v>
       </c>
       <c r="D6">
-        <v>0.1200567451426497</v>
+        <v>0.1664324393548997</v>
       </c>
       <c r="E6">
-        <v>0.3464920563918454</v>
+        <v>0.4079613209054257</v>
       </c>
       <c r="F6">
-        <v>0.3637200573468097</v>
+        <v>0.4278502102499434</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.05669611638992965</v>
+        <v>-0.03152289704198964</v>
       </c>
       <c r="C7">
-        <v>0.309241221828214</v>
+        <v>0.3137577720403564</v>
       </c>
       <c r="D7">
-        <v>0.12362493933599</v>
+        <v>0.1200567451426497</v>
       </c>
       <c r="E7">
-        <v>0.3516033835673229</v>
+        <v>0.3464920563918454</v>
       </c>
       <c r="F7">
-        <v>0.3680513563860018</v>
+        <v>0.3637200573468097</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.04410238231315148</v>
+        <v>-0.05669611638992965</v>
       </c>
       <c r="C8">
-        <v>0.2487243691024244</v>
+        <v>0.309241221828214</v>
       </c>
       <c r="D8">
-        <v>0.1063280554679864</v>
+        <v>0.12362493933599</v>
       </c>
       <c r="E8">
-        <v>0.3260798299005727</v>
+        <v>0.3516033835673229</v>
       </c>
       <c r="F8">
-        <v>0.3453909343541705</v>
+        <v>0.3680513563860018</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.07289500678705241</v>
+        <v>-0.04410238231315148</v>
       </c>
       <c r="C9">
-        <v>0.3460499651212735</v>
+        <v>0.2487243691024244</v>
       </c>
       <c r="D9">
-        <v>0.2127274776992719</v>
+        <v>0.1063280554679864</v>
       </c>
       <c r="E9">
-        <v>0.4612238910759848</v>
+        <v>0.3260798299005727</v>
       </c>
       <c r="F9">
-        <v>0.4919174337551497</v>
+        <v>0.3453909343541705</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.05253816173664939</v>
+        <v>-0.07289500678705241</v>
       </c>
       <c r="C10">
-        <v>0.2093953811075043</v>
+        <v>0.3460499651212735</v>
       </c>
       <c r="D10">
-        <v>0.05818608614024737</v>
+        <v>0.2127274776992719</v>
       </c>
       <c r="E10">
-        <v>0.2412179225104291</v>
+        <v>0.4612238910759848</v>
       </c>
       <c r="F10">
-        <v>0.2578972532655152</v>
+        <v>0.4919174337551497</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.009352853557239749</v>
+        <v>-0.05253816173664939</v>
       </c>
       <c r="C11">
-        <v>0.4545107205050175</v>
+        <v>0.2093953811075043</v>
       </c>
       <c r="D11">
-        <v>0.223274494992554</v>
+        <v>0.05818608614024737</v>
       </c>
       <c r="E11">
-        <v>0.4725193064759936</v>
+        <v>0.2412179225104291</v>
       </c>
       <c r="F11">
-        <v>0.5281891459539978</v>
+        <v>0.2578972532655152</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
